--- a/Client/assets/FileExportXlsx/SCTBH.xlsx
+++ b/Client/assets/FileExportXlsx/SCTBH.xlsx
@@ -5,7 +5,7 @@
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\Project\OptiTax_App\Client\assets\FileExportXlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -18,12 +18,12 @@
   <definedNames>
     <definedName name="__Report__">'Báo cáo'!$6:$6</definedName>
   </definedNames>
-  <calcPr calcId="162913" fullCalcOnLoad="1"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="122">
   <si>
     <t>SỔ CHI TIẾT BÁN HÀNG</t>
   </si>
@@ -134,33 +134,6 @@
   </si>
   <si>
     <t>&lt;#EValuate(-1*&lt;#Report.amount&gt;)&gt;</t>
-  </si>
-  <si>
-    <t>Số dòng = 7</t>
-  </si>
-  <si>
-    <t>Người ghi sổ</t>
-  </si>
-  <si>
-    <t>Kế toán trưởng</t>
-  </si>
-  <si>
-    <t>Giám đốc</t>
-  </si>
-  <si>
-    <t>(Ký, họ tên)</t>
-  </si>
-  <si>
-    <t>(Ký, họ tên, đóng dấu)</t>
-  </si>
-  <si>
-    <t>&lt;#Preparer&gt;</t>
-  </si>
-  <si>
-    <t>&lt;#Accountant&gt;</t>
-  </si>
-  <si>
-    <t>&lt;#Director&gt;</t>
   </si>
   <si>
     <t>Configuration Sheet</t>
@@ -424,10 +397,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="180" formatCode="dd/mm/yyyy;@"/>
+    <numFmt numFmtId="164" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="165" formatCode="dd/mm/yyyy;@"/>
   </numFmts>
-  <fonts count="28" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -444,27 +417,6 @@
       <sz val="8"/>
       <name val="Microsoft Sans Serif"/>
       <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="8"/>
-      <name val="Microsoft Sans Serif"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -577,53 +529,37 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <b/>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <b/>
       <i/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Microsoft Sans Serif"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Microsoft Sans Serif"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Microsoft Sans Serif"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="12">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -747,61 +683,54 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="40" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="38" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="22" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="19" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -810,65 +739,118 @@
     <xf numFmtId="14" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="40" fontId="19" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="19" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="40" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="38" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="40" fontId="22" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="38" fontId="22" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="178" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="40" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="38" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1149,353 +1131,309 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A3:S13"/>
+  <dimension ref="A3:S16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.19921875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.19921875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.3984375" style="35" customWidth="1"/>
-    <col min="2" max="2" width="10.59765625" style="35" customWidth="1"/>
-    <col min="3" max="3" width="9.296875" style="36" customWidth="1"/>
-    <col min="4" max="4" width="10.796875" style="35" customWidth="1"/>
-    <col min="5" max="5" width="10.8984375" style="36" customWidth="1"/>
-    <col min="6" max="6" width="20.69921875" style="36" customWidth="1"/>
-    <col min="7" max="7" width="27" style="36" customWidth="1"/>
-    <col min="8" max="8" width="9.69921875" style="36" customWidth="1"/>
-    <col min="9" max="9" width="27" style="36" customWidth="1"/>
-    <col min="10" max="10" width="10.59765625" style="36" customWidth="1"/>
-    <col min="11" max="11" width="27" style="36" customWidth="1"/>
-    <col min="12" max="12" width="9.09765625" style="36" customWidth="1"/>
-    <col min="13" max="13" width="9.3984375" style="37" customWidth="1"/>
-    <col min="14" max="14" width="11.8984375" style="37" customWidth="1"/>
-    <col min="15" max="16" width="15.3984375" style="38" customWidth="1"/>
-    <col min="17" max="17" width="13.796875" style="37" customWidth="1"/>
-    <col min="18" max="19" width="15.3984375" style="38" customWidth="1"/>
-    <col min="20" max="16384" width="8.19921875" style="36"/>
+    <col min="1" max="1" width="9.3984375" style="62" customWidth="1"/>
+    <col min="2" max="2" width="10.59765625" style="62" customWidth="1"/>
+    <col min="3" max="3" width="9.296875" style="54" customWidth="1"/>
+    <col min="4" max="4" width="10.796875" style="62" customWidth="1"/>
+    <col min="5" max="5" width="10.8984375" style="66" customWidth="1"/>
+    <col min="6" max="6" width="20.69921875" style="70" customWidth="1"/>
+    <col min="7" max="7" width="27" style="70" customWidth="1"/>
+    <col min="8" max="8" width="9.69921875" style="70" customWidth="1"/>
+    <col min="9" max="9" width="27" style="70" customWidth="1"/>
+    <col min="10" max="10" width="25.796875" style="70" customWidth="1"/>
+    <col min="11" max="11" width="27" style="54" customWidth="1"/>
+    <col min="12" max="12" width="9.09765625" style="54" customWidth="1"/>
+    <col min="13" max="13" width="32.296875" style="77" customWidth="1"/>
+    <col min="14" max="14" width="11.8984375" style="52" customWidth="1"/>
+    <col min="15" max="15" width="38.3984375" style="81" customWidth="1"/>
+    <col min="16" max="16" width="15.3984375" style="81" customWidth="1"/>
+    <col min="17" max="17" width="13.796875" style="52" customWidth="1"/>
+    <col min="18" max="19" width="15.3984375" style="53" customWidth="1"/>
+    <col min="20" max="16384" width="8.19921875" style="54"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:19" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A3" s="64" t="s">
+      <c r="A3" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="64"/>
-      <c r="C3" s="64"/>
-      <c r="D3" s="64"/>
-      <c r="E3" s="64"/>
-      <c r="F3" s="64"/>
-      <c r="G3" s="64"/>
-      <c r="H3" s="64"/>
-      <c r="I3" s="64"/>
-      <c r="J3" s="64"/>
-      <c r="K3" s="64"/>
-      <c r="L3" s="64"/>
-      <c r="M3" s="64"/>
-      <c r="N3" s="64"/>
-      <c r="O3" s="64"/>
-      <c r="P3" s="64"/>
-      <c r="Q3" s="64"/>
-      <c r="R3" s="64"/>
-      <c r="S3" s="64"/>
-    </row>
-    <row r="4" spans="1:19" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="A4" s="39" t="s">
+      <c r="B3" s="50"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="50"/>
+      <c r="H3" s="50"/>
+      <c r="I3" s="50"/>
+      <c r="J3" s="50"/>
+      <c r="K3" s="50"/>
+      <c r="L3" s="50"/>
+      <c r="M3" s="50"/>
+      <c r="N3" s="50"/>
+      <c r="O3" s="50"/>
+      <c r="P3" s="50"/>
+      <c r="Q3" s="50"/>
+      <c r="R3" s="50"/>
+      <c r="S3" s="50"/>
+    </row>
+    <row r="4" spans="1:19" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="A4" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="39"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="40" t="s">
+      <c r="B4" s="60"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="60"/>
+      <c r="E4" s="60"/>
+      <c r="F4" s="69"/>
+      <c r="G4" s="69"/>
+      <c r="H4" s="73" t="s">
         <v>2</v>
       </c>
-      <c r="I4" s="55" t="s">
+      <c r="I4" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="J4" s="40" t="s">
+      <c r="J4" s="73" t="s">
         <v>4</v>
       </c>
-      <c r="K4" s="55" t="s">
+      <c r="K4" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="L4" s="39"/>
-      <c r="M4" s="39"/>
-      <c r="N4" s="39"/>
-      <c r="O4" s="39"/>
-      <c r="P4" s="39"/>
-      <c r="Q4" s="39"/>
-      <c r="R4" s="39"/>
-      <c r="S4" s="39"/>
-    </row>
-    <row r="5" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="41" t="s">
+      <c r="L4" s="35"/>
+      <c r="M4" s="76"/>
+      <c r="N4" s="35"/>
+      <c r="O4" s="76"/>
+      <c r="P4" s="76"/>
+      <c r="Q4" s="35"/>
+      <c r="R4" s="35"/>
+      <c r="S4" s="35"/>
+    </row>
+    <row r="5" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="41" t="s">
+      <c r="B5" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="42" t="s">
+      <c r="C5" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="41" t="s">
+      <c r="D5" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="42" t="s">
+      <c r="E5" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="42" t="s">
+      <c r="F5" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="42" t="s">
+      <c r="G5" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="42" t="s">
+      <c r="H5" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="I5" s="42" t="s">
+      <c r="I5" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="J5" s="42" t="s">
+      <c r="J5" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="K5" s="42" t="s">
+      <c r="K5" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="L5" s="42" t="s">
+      <c r="L5" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="M5" s="56" t="s">
+      <c r="M5" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="N5" s="56" t="s">
+      <c r="N5" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="O5" s="57" t="s">
+      <c r="O5" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="P5" s="57" t="s">
+      <c r="P5" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="Q5" s="56" t="s">
+      <c r="Q5" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="R5" s="57" t="s">
+      <c r="R5" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="S5" s="57" t="s">
+      <c r="S5" s="45" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A6" s="43" t="s">
+    <row r="6" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="43" t="s">
+      <c r="B6" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="44" t="s">
+      <c r="C6" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="43" t="s">
+      <c r="D6" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="45" t="s">
+      <c r="E6" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="F6" s="46" t="s">
+      <c r="F6" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="G6" s="46" t="s">
+      <c r="G6" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="H6" s="44" t="s">
+      <c r="H6" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="I6" s="58" t="s">
+      <c r="I6" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="J6" s="59" t="s">
+      <c r="J6" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="K6" s="58" t="s">
+      <c r="K6" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="L6" s="58" t="s">
+      <c r="L6" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="M6" s="60" t="s">
+      <c r="M6" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="N6" s="61" t="e">
+      <c r="N6" s="49" t="e">
         <f>O6/M6</f>
         <v>#VALUE!</v>
       </c>
-      <c r="O6" s="60" t="s">
+      <c r="O6" s="48" t="s">
         <v>36</v>
       </c>
-      <c r="P6" s="61">
+      <c r="P6" s="49">
         <v>0</v>
       </c>
-      <c r="Q6" s="61">
+      <c r="Q6" s="49">
         <v>0</v>
       </c>
-      <c r="R6" s="61">
+      <c r="R6" s="49">
         <v>0</v>
       </c>
-      <c r="S6" s="61">
+      <c r="S6" s="49">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="47"/>
-      <c r="B7" s="47"/>
-      <c r="C7" s="44"/>
-      <c r="D7" s="47"/>
-      <c r="E7" s="44"/>
-      <c r="F7" s="44"/>
-      <c r="G7" s="44"/>
-      <c r="H7" s="44"/>
-      <c r="I7" s="58"/>
-      <c r="J7" s="58"/>
-      <c r="K7" s="58"/>
-      <c r="L7" s="58"/>
-      <c r="M7" s="61"/>
-      <c r="N7" s="61"/>
-      <c r="O7" s="61"/>
-      <c r="P7" s="61"/>
-      <c r="Q7" s="61"/>
-      <c r="R7" s="61"/>
-      <c r="S7" s="61"/>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A8" s="48" t="s">
-        <v>37</v>
-      </c>
-      <c r="B8" s="49"/>
-      <c r="C8" s="50"/>
-      <c r="D8" s="49"/>
-      <c r="E8" s="50"/>
-      <c r="F8" s="50"/>
-      <c r="G8" s="50"/>
-      <c r="H8" s="50"/>
-      <c r="I8" s="62"/>
-      <c r="J8" s="62"/>
-      <c r="K8" s="62"/>
-      <c r="L8" s="62"/>
-      <c r="M8" s="63">
-        <f t="shared" ref="M8:S8" si="0">SUM(M6:M7)</f>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A7" s="42"/>
+      <c r="B7" s="42"/>
+      <c r="C7" s="39"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="65"/>
+      <c r="F7" s="39"/>
+      <c r="G7" s="39"/>
+      <c r="H7" s="39"/>
+      <c r="I7" s="46"/>
+      <c r="J7" s="46"/>
+      <c r="K7" s="46"/>
+      <c r="L7" s="46"/>
+      <c r="M7" s="49"/>
+      <c r="N7" s="49"/>
+      <c r="O7" s="49"/>
+      <c r="P7" s="49"/>
+      <c r="Q7" s="49"/>
+      <c r="R7" s="49"/>
+      <c r="S7" s="49"/>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A8" s="61"/>
+      <c r="I8" s="75"/>
+      <c r="J8" s="75"/>
+      <c r="K8" s="55"/>
+      <c r="L8" s="55"/>
+      <c r="M8" s="51">
+        <f t="shared" ref="M8:O8" si="0">SUM(M6:M7)</f>
         <v>0</v>
       </c>
-      <c r="N8" s="62"/>
-      <c r="O8" s="63">
+      <c r="N8" s="55"/>
+      <c r="O8" s="51">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P8" s="63">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q8" s="63">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R8" s="63">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="S8" s="63">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="C10" s="65" t="s">
-        <v>38</v>
-      </c>
-      <c r="D10" s="65"/>
-      <c r="E10" s="65"/>
-      <c r="F10" s="51"/>
-      <c r="G10" s="65" t="s">
-        <v>39</v>
-      </c>
-      <c r="H10" s="65"/>
-      <c r="I10" s="65"/>
-      <c r="J10" s="51"/>
-      <c r="K10" s="65" t="s">
-        <v>40</v>
-      </c>
-      <c r="L10" s="65"/>
-      <c r="M10" s="65"/>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="C11" s="66" t="s">
-        <v>41</v>
-      </c>
-      <c r="D11" s="66"/>
-      <c r="E11" s="66"/>
-      <c r="F11" s="52"/>
-      <c r="G11" s="66" t="s">
-        <v>41</v>
-      </c>
-      <c r="H11" s="66"/>
-      <c r="I11" s="66"/>
-      <c r="J11" s="52"/>
-      <c r="K11" s="66" t="s">
-        <v>42</v>
-      </c>
-      <c r="L11" s="66"/>
-      <c r="M11" s="66"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="C12" s="53"/>
-      <c r="D12" s="53"/>
-      <c r="E12" s="53"/>
-      <c r="F12" s="53"/>
-      <c r="G12" s="53"/>
-      <c r="H12" s="53"/>
-      <c r="I12" s="53"/>
-      <c r="J12" s="53"/>
-      <c r="K12" s="53"/>
-      <c r="L12" s="53"/>
-      <c r="M12" s="53"/>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="C13" s="67" t="s">
-        <v>43</v>
-      </c>
-      <c r="D13" s="67"/>
-      <c r="E13" s="67"/>
-      <c r="F13" s="54"/>
-      <c r="G13" s="67" t="s">
-        <v>44</v>
-      </c>
-      <c r="H13" s="67"/>
-      <c r="I13" s="67"/>
-      <c r="J13" s="54"/>
-      <c r="K13" s="67" t="s">
-        <v>45</v>
-      </c>
-      <c r="L13" s="67"/>
-      <c r="M13" s="67"/>
-    </row>
+      <c r="P8" s="51"/>
+      <c r="Q8" s="51"/>
+      <c r="R8" s="51"/>
+      <c r="S8" s="51"/>
+    </row>
+    <row r="9" spans="1:19" ht="13.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="C10" s="59"/>
+      <c r="D10" s="67"/>
+      <c r="E10" s="67"/>
+      <c r="F10" s="71"/>
+      <c r="G10" s="71"/>
+      <c r="H10" s="71"/>
+      <c r="I10" s="71"/>
+      <c r="J10" s="71"/>
+      <c r="K10" s="59"/>
+      <c r="L10" s="59"/>
+      <c r="M10" s="78"/>
+    </row>
+    <row r="11" spans="1:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C11" s="56"/>
+      <c r="D11" s="63"/>
+      <c r="E11" s="68"/>
+      <c r="F11" s="72"/>
+      <c r="G11" s="72"/>
+      <c r="H11" s="72"/>
+      <c r="I11" s="72"/>
+      <c r="J11" s="72"/>
+      <c r="K11" s="58"/>
+      <c r="L11" s="58"/>
+      <c r="M11" s="79"/>
+    </row>
+    <row r="12" spans="1:19" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C12" s="57"/>
+      <c r="D12" s="64"/>
+      <c r="E12" s="64"/>
+      <c r="F12" s="57"/>
+      <c r="G12" s="57"/>
+      <c r="H12" s="57"/>
+      <c r="I12" s="57"/>
+      <c r="J12" s="57"/>
+      <c r="K12" s="57"/>
+      <c r="L12" s="57"/>
+      <c r="M12" s="80"/>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="C13" s="56"/>
+      <c r="D13" s="63"/>
+      <c r="E13" s="68"/>
+      <c r="F13" s="72"/>
+      <c r="G13" s="72"/>
+      <c r="H13" s="72"/>
+      <c r="I13" s="72"/>
+      <c r="J13" s="72"/>
+      <c r="K13" s="58"/>
+      <c r="L13" s="58"/>
+      <c r="M13" s="79"/>
+    </row>
+    <row r="16" spans="1:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="K13:M13"/>
+  <mergeCells count="1">
     <mergeCell ref="A3:S3"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="K10:M10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="K11:M11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1527,7 +1465,7 @@
   <sheetData>
     <row r="1" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="4"/>
@@ -1583,7 +1521,7 @@
     </row>
     <row r="3" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
@@ -1613,10 +1551,10 @@
     </row>
     <row r="4" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
@@ -1645,7 +1583,7 @@
     </row>
     <row r="5" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="B5" s="6"/>
       <c r="C5" s="5"/>
@@ -1729,7 +1667,7 @@
     </row>
     <row r="8" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
@@ -1738,16 +1676,16 @@
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
       <c r="H8" s="8" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="I8" s="8"/>
       <c r="J8" s="5"/>
       <c r="K8" s="8" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="L8" s="5"/>
       <c r="M8" s="8" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="N8" s="8"/>
       <c r="O8" s="5"/>
@@ -1765,36 +1703,36 @@
     </row>
     <row r="9" spans="1:26" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
       <c r="H9" s="9" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="I9" s="9" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="J9" s="5"/>
       <c r="K9" s="10" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="L9" s="5"/>
       <c r="M9" s="9" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="N9" s="9" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="O9" s="5"/>
       <c r="P9" s="5"/>
@@ -1811,10 +1749,10 @@
     </row>
     <row r="10" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
@@ -1822,16 +1760,16 @@
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
       <c r="H10" s="11" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="I10" s="20" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="J10" s="11"/>
       <c r="K10" s="11"/>
       <c r="L10" s="11"/>
       <c r="M10" s="21" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="N10" s="11"/>
       <c r="P10" s="5"/>
@@ -1855,10 +1793,10 @@
       <c r="F11" s="11"/>
       <c r="G11" s="11"/>
       <c r="H11" s="11" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="I11" s="22" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="J11" s="11"/>
       <c r="K11" s="11"/>
@@ -1884,10 +1822,10 @@
       <c r="F12" s="11"/>
       <c r="G12" s="11"/>
       <c r="H12" s="11" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="I12" s="11" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="J12" s="11"/>
       <c r="K12" s="11"/>
@@ -2037,13 +1975,13 @@
     </row>
     <row r="18" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="13" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="D18" s="11"/>
       <c r="E18" s="11"/>
@@ -2070,13 +2008,13 @@
     </row>
     <row r="19" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="14" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="D19" s="11"/>
       <c r="E19" s="11"/>
@@ -2103,13 +2041,13 @@
     </row>
     <row r="20" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="14" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="D20" s="11"/>
       <c r="E20" s="11"/>
@@ -2192,10 +2130,10 @@
       <c r="K23" s="14"/>
       <c r="L23" s="14"/>
       <c r="M23" s="24" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="N23" s="14" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="P23" s="5"/>
       <c r="Q23" s="5"/>
@@ -2223,10 +2161,10 @@
       <c r="K24" s="14"/>
       <c r="L24" s="14"/>
       <c r="M24" s="24" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="N24" s="14" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="P24" s="5"/>
       <c r="Q24" s="5"/>
@@ -2310,10 +2248,10 @@
       <c r="K27" s="14"/>
       <c r="L27" s="14"/>
       <c r="M27" s="19" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="N27" s="19" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="O27" s="5"/>
       <c r="P27" s="5"/>
@@ -2342,10 +2280,10 @@
       <c r="K28" s="14"/>
       <c r="L28" s="14"/>
       <c r="M28" s="14" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="N28" s="19" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="O28" s="5"/>
       <c r="P28" s="5"/>
@@ -2375,7 +2313,7 @@
       <c r="L29" s="14"/>
       <c r="M29" s="14"/>
       <c r="N29" s="19" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="O29" s="5"/>
       <c r="P29" s="5"/>
@@ -2460,10 +2398,10 @@
       <c r="K32" s="15"/>
       <c r="L32" s="15"/>
       <c r="M32" s="25" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="N32" s="26" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="O32" s="5"/>
       <c r="P32" s="5"/>
@@ -2492,10 +2430,10 @@
       <c r="K33" s="15"/>
       <c r="L33" s="15"/>
       <c r="M33" s="25" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="N33" s="26" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="O33" s="5"/>
       <c r="P33" s="5"/>
@@ -2524,10 +2462,10 @@
       <c r="K34" s="15"/>
       <c r="L34" s="15"/>
       <c r="M34" s="27" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="N34" s="18" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="O34" s="5"/>
       <c r="P34" s="5"/>
@@ -2556,10 +2494,10 @@
       <c r="K35" s="15"/>
       <c r="L35" s="15"/>
       <c r="M35" s="27" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="N35" s="18" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="O35" s="5"/>
       <c r="P35" s="5"/>
@@ -2588,10 +2526,10 @@
       <c r="K36" s="15"/>
       <c r="L36" s="15"/>
       <c r="M36" s="27" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="N36" s="18" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="O36" s="5"/>
       <c r="P36" s="5"/>
@@ -2620,10 +2558,10 @@
       <c r="K37" s="15"/>
       <c r="L37" s="15"/>
       <c r="M37" s="27" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="N37" s="18" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="O37" s="5"/>
       <c r="P37" s="5"/>
@@ -2680,10 +2618,10 @@
       <c r="K39" s="15"/>
       <c r="L39" s="15"/>
       <c r="M39" s="27" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="N39" s="18" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="O39" s="5"/>
       <c r="P39" s="5"/>
@@ -2712,10 +2650,10 @@
       <c r="K40" s="15"/>
       <c r="L40" s="15"/>
       <c r="M40" s="27" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="N40" s="18" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="O40" s="5"/>
       <c r="P40" s="5"/>
@@ -2744,10 +2682,10 @@
       <c r="K41" s="15"/>
       <c r="L41" s="15"/>
       <c r="M41" s="27" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="N41" s="18" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="O41" s="5"/>
       <c r="P41" s="5"/>
@@ -2776,10 +2714,10 @@
       <c r="K42" s="15"/>
       <c r="L42" s="15"/>
       <c r="M42" s="27" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="N42" s="18" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="O42" s="5"/>
       <c r="P42" s="5"/>
@@ -2808,10 +2746,10 @@
       <c r="K43" s="15"/>
       <c r="L43" s="15"/>
       <c r="M43" s="27" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="N43" s="18" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="O43" s="5"/>
       <c r="P43" s="5"/>
@@ -2856,10 +2794,10 @@
     </row>
     <row r="45" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="16" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="B45" s="17" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="C45" s="16"/>
       <c r="D45" s="16"/>
@@ -2900,10 +2838,10 @@
       <c r="K46" s="16"/>
       <c r="L46" s="16"/>
       <c r="M46" s="17" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="N46" s="31" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="O46" s="5"/>
       <c r="P46" s="5"/>
@@ -2932,10 +2870,10 @@
       <c r="K47" s="16"/>
       <c r="L47" s="16"/>
       <c r="M47" s="32" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="N47" s="33" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="O47" s="5"/>
       <c r="P47" s="5"/>
@@ -2964,10 +2902,10 @@
       <c r="K48" s="16"/>
       <c r="L48" s="16"/>
       <c r="M48" s="32" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="N48" s="33" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="O48" s="5"/>
       <c r="P48" s="5"/>
@@ -2996,10 +2934,10 @@
       <c r="K49" s="16"/>
       <c r="L49" s="16"/>
       <c r="M49" s="16" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="N49" s="33" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="O49" s="5"/>
       <c r="P49" s="5"/>
@@ -3028,10 +2966,10 @@
       <c r="K50" s="16"/>
       <c r="L50" s="16"/>
       <c r="M50" s="16" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="N50" s="33" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="O50" s="5"/>
       <c r="P50" s="5"/>
@@ -3060,10 +2998,10 @@
       <c r="K51" s="16"/>
       <c r="L51" s="16"/>
       <c r="M51" s="16" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="N51" s="33" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="O51" s="5"/>
       <c r="P51" s="5"/>
@@ -3092,10 +3030,10 @@
       <c r="K52" s="16"/>
       <c r="L52" s="16"/>
       <c r="M52" s="16" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="N52" s="33" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="O52" s="5"/>
       <c r="P52" s="5"/>
@@ -3168,10 +3106,10 @@
     </row>
     <row r="55" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="13" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="B55" s="14" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="C55" s="14"/>
       <c r="D55" s="14"/>
@@ -3212,10 +3150,10 @@
       <c r="K56" s="14"/>
       <c r="L56" s="14"/>
       <c r="M56" s="24" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="N56" s="34" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="O56" s="5"/>
       <c r="P56" s="5"/>
@@ -3244,10 +3182,10 @@
       <c r="K57" s="14"/>
       <c r="L57" s="14"/>
       <c r="M57" s="24" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="N57" s="34" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="O57" s="5"/>
       <c r="P57" s="5"/>
